--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4030190.116297</v>
+        <v>4027896.520840407</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7144634.345176144</v>
+        <v>7144634.345176145</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.9028512266792</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078156</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>203.7776174440232</v>
+        <v>167.8420981406704</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>96.32693285396994</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428481</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>12.51754213718717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>11.03304066191061</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786497991</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>240.3635537979627</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576154</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784672</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.986492286524</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.986492286524</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.720793679773</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>741.9325410815291</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>330.9466362919215</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.986492286524</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4413,19 +4413,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296771</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129068</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>473.9512097489098</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1430.610142858312</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="W4" t="n">
-        <v>1430.610142858312</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.620591960295</v>
+        <v>655.5996745791496</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.8280128167645</v>
+        <v>655.5996745791496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458459</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518048</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911297</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313053</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>620.8813975234455</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8089473684419</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.5020034330385</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>617.5020034330385</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>834.3470688139735</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>606.3575179159561</v>
       </c>
       <c r="Y7" t="n">
-        <v>617.5020034330385</v>
+        <v>385.564938772426</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3082.814353126381</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,40 +5273,40 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460947</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.454437538930208</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="8">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.269129278680414e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.0927060546</v>
+        <v>49110.09270605436</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312031</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768799</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26439,19 +26439,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.14432176893</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768974</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26522,46 +26522,46 @@
         <v>-524578.1965587027</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976636</v>
+        <v>420534.9085976642</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097696</v>
+        <v>623973.6502097691</v>
       </c>
       <c r="E6" t="n">
-        <v>370664.4637369751</v>
+        <v>370629.7258115389</v>
       </c>
       <c r="F6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188942</v>
       </c>
       <c r="G6" t="n">
-        <v>696076.92554433</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="H6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="I6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188949</v>
       </c>
       <c r="J6" t="n">
-        <v>528471.7477343475</v>
+        <v>528437.0098089119</v>
       </c>
       <c r="K6" t="n">
-        <v>646966.8328382757</v>
+        <v>646932.0949128403</v>
       </c>
       <c r="L6" t="n">
-        <v>696076.92554433</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="M6" t="n">
-        <v>611021.8976088183</v>
+        <v>610987.1596833824</v>
       </c>
       <c r="N6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188943</v>
       </c>
       <c r="O6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="P6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188949</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5332154169304e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5332154169304e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.5332154169304e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.836411598350518e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,43 +26960,43 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.836411598350518e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>134.6448515462748</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.288514365272</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>48.36002587980482</v>
+        <v>84.29554518315763</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>198.2808315333505</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231282</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0979308810252</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>241.1046026619174</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224627</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.6316181609393</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.722435393526893e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-7.836411598350518e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>469.5567819573404</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954398</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,10 +32558,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110996</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>345.1232217852624</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34781,13 +34781,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="M3" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9351598697847</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121065</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312254</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>211.1488143709321</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
